--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752A386B-A776-47EB-8755-EF64B7DD987D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338AA36F-9B5F-4040-A4D4-5A1319553FD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338AA36F-9B5F-4040-A4D4-5A1319553FD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC2A0C-07FD-4E3B-B961-9F0CCE26C46B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,6 @@
     <t>ExecutionFlag</t>
   </si>
   <si>
-    <t>PortFolioInsight</t>
-  </si>
-  <si>
-    <t>FASB</t>
-  </si>
-  <si>
     <t>Module3</t>
   </si>
   <si>
@@ -52,7 +46,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>FASB2</t>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Modul1</t>
+  </si>
+  <si>
+    <t>Module2</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,68 +469,68 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC2A0C-07FD-4E3B-B961-9F0CCE26C46B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B248473-39AC-42B3-8DB0-F4DAC4BF2EFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>sample</t>
-  </si>
-  <si>
     <t>Modul1</t>
   </si>
   <si>
     <t>Module2</t>
+  </si>
+  <si>
+    <t>FASB</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B248473-39AC-42B3-8DB0-F4DAC4BF2EFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC1EA4B-0F38-4736-9B8B-DC36491B09CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC1EA4B-0F38-4736-9B8B-DC36491B09CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A7EC6-F3EB-4DC7-8837-D504EB8A8AD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>ModuleName</t>
   </si>
@@ -28,28 +28,10 @@
     <t>ExecutionFlag</t>
   </si>
   <si>
-    <t>Module3</t>
-  </si>
-  <si>
-    <t>Module4</t>
-  </si>
-  <si>
-    <t>Module5</t>
-  </si>
-  <si>
-    <t>Module6</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Modul1</t>
-  </si>
-  <si>
-    <t>Module2</t>
   </si>
   <si>
     <t>FASB</t>
@@ -82,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -106,19 +88,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -150,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,13 +127,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,83 +426,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$C$49:$C$50</formula1>
+      <formula1>$C$43:$C$44</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A7EC6-F3EB-4DC7-8837-D504EB8A8AD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699635C-F369-44B9-A932-0C2250678BEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>ModuleName</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>FASB</t>
+  </si>
+  <si>
+    <t>Preq</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +444,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699635C-F369-44B9-A932-0C2250678BEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176A581A-BB87-4D23-A133-ACCD27DC02D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>ModuleName</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Preq</t>
+  </si>
+  <si>
+    <t>MENU</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +441,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -450,6 +453,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699635C-F369-44B9-A932-0C2250678BEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1702BCCB-DFC9-4586-93A1-6E52896309DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>ModuleName</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Preq</t>
+  </si>
+  <si>
+    <t>MENU</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +441,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -446,10 +449,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1702BCCB-DFC9-4586-93A1-6E52896309DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF9B79-008F-4339-8FA6-E2E2F162C1D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +441,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF9B79-008F-4339-8FA6-E2E2F162C1D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4098914-9F1D-497D-A924-EEAA02597E2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>ModuleName</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>MENU</t>
+  </si>
+  <si>
+    <t>SMOKE</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -449,7 +452,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -461,6 +464,14 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4098914-9F1D-497D-A924-EEAA02597E2A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336268B1-2370-4D6B-90F5-BAC3151838D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>ModuleName</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>SMOKE</t>
+  </si>
+  <si>
+    <t>CommonTC</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,23 +474,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$C$43:$C$44</formula1>
+      <formula1>$C$44:$C$45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336268B1-2370-4D6B-90F5-BAC3151838D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="3690" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>ModuleName</t>
   </si>
@@ -47,12 +46,18 @@
   </si>
   <si>
     <t>CommonTC</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,8 +80,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,52 +110,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,33 +406,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,39 +449,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$C$44:$C$45</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$C$45:$C$46</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3690" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="2340" yWindow="4140" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>ModuleName</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +427,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -462,7 +459,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -470,7 +467,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="4140" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="2340" yWindow="5940" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="5940" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="2340" yWindow="6390" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB6BF0-D047-7D4A-8020-FEB4A35C2CFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="6390" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,21 +404,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -425,7 +426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -433,7 +434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -441,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -449,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -457,7 +458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -465,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,19 +474,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$C$45:$C$46</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB6BF0-D047-7D4A-8020-FEB4A35C2CFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF994C5F-8E37-0143-B15C-E323FC3243AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -407,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -493,4 +494,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B58A43B-6412-504B-85E4-F95423AA05A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="6390" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="2340" yWindow="6840" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF994C5F-8E37-0143-B15C-E323FC3243AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="6840" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,21 +405,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -425,7 +427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -433,7 +435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -441,15 +443,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -457,7 +459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -465,7 +467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,23 +475,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$C$45:$C$46</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B58A43B-6412-504B-85E4-F95423AA05A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="6840" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="2340" yWindow="7740" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>ModuleName</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>REGRESSION</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +476,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
         <v>2</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF994C5F-8E37-0143-B15C-E323FC3243AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D395743-DBE3-314D-8CDB-ECEA8B1D219B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>ModuleName</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>FRAT</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -469,10 +472,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="7740" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="2340" yWindow="9090" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFC632-7EC5-714A-AA97-6CF7F5AFFB5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="9090" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>ModuleName</t>
   </si>
@@ -52,12 +53,15 @@
   </si>
   <si>
     <t>REGRESSION</t>
+  </si>
+  <si>
+    <t>FRAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,21 +410,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -428,7 +432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -436,7 +440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -444,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -452,7 +456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -460,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -468,7 +472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -476,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,19 +488,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$C$45:$C$46</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFC632-7EC5-714A-AA97-6CF7F5AFFB5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,21 +409,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -432,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -440,7 +439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -448,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -456,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -464,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -472,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -488,27 +487,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>$C$45:$C$46</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCFC632-7EC5-714A-AA97-6CF7F5AFFB5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B12A8C-7A6D-1B4A-8218-9CCB7122C1C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -481,8 +481,8 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
+      <c r="A8" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D204F781-E336-5845-8CB8-3943FE90DB68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,21 +410,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -431,7 +432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -439,7 +440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -447,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -455,7 +456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -463,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,23 +472,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -495,19 +496,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$C$45:$C$46</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>

--- a/src/main/resources/testPlan/ModuleController.xlsx
+++ b/src/main/resources/testPlan/ModuleController.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD591A-E1BA-F946-99A3-4325274DEB93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleController" sheetId="1" r:id="rId1"/>
@@ -51,16 +52,16 @@
     <t>Login</t>
   </si>
   <si>
-    <t>REGRESSION</t>
-  </si>
-  <si>
     <t>FRAT</t>
+  </si>
+  <si>
+    <t>SRAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,21 +410,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -431,7 +432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -439,7 +440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -447,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -455,7 +456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -463,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,7 +472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,35 +480,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$C$45:$C$46</formula1>
     </dataValidation>
   </dataValidations>
